--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -1,31 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESTUDIANTE\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\GitHub\analisisalgoritmico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ACB10FE-922D-4BD5-88F7-1F22FC04BEAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD6015D-AD8E-46B5-BD20-3D02F8FF538E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{2237C9B5-94A1-4A58-9B04-C7ABB5077F7A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2237C9B5-94A1-4A58-9B04-C7ABB5077F7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$C$26:$G$30</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>tamaño</t>
   </si>
@@ -96,9 +110,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -130,12 +145,425 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Big O</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Python</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$I$2:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$J$2:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>35.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>473.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>877.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2595.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3092.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4CD8-4765-8C73-A7EC575F596B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$I$2:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$K$2:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>172.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>426.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1054.83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2854.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9955.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4CD8-4765-8C73-A7EC575F596B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$I$2:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$L$2:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>99.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>318.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1201.0899999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2705.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10369.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4CD8-4765-8C73-A7EC575F596B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$I$2:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$M$2:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>104.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>313.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>896.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3067.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11782.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4CD8-4765-8C73-A7EC575F596B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$I$2:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$N$2:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>86.55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>386.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1043.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3092.82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9897.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4CD8-4765-8C73-A7EC575F596B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -144,153 +572,677 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2078025968"/>
-        <c:axId val="1800795440"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:v>Entrada</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:multiLvlStrRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Hoja1!$B$11:$F$15</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Hoja1!$B$12:$F$15</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:multiLvlStrCache>
-                      <c:ptCount val="4"/>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>386,69</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>1043,45</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>3092,82</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>9897,74</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>313,7</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>896,25</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>3067,88</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>11782,03</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>318,14</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>1201,09</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>2705,74</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>10369,44</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>426,01</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>1054,83</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>2854,22</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>9955,52</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>473,32</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>877,55</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>2595,02</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>3092,82</c:v>
-                        </c:pt>
-                      </c:lvl>
-                    </c:multiLvlStrCache>
-                  </c:multiLvlStrRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{F5D05F6E-A05E-4728-AFD3-386EB277150F}">
-                        <c16:filteredLitCache>
-                          <c:numCache>
-                            <c:formatCode>General</c:formatCode>
-                            <c:ptCount val="1"/>
-                            <c:pt idx="0">
-                              <c:v>1</c:v>
-                            </c:pt>
-                          </c:numCache>
-                        </c16:filteredLitCache>
-                      </c:ext>
-                    </c:extLst>
-                    <c:f/>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="0"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-78AB-4696-A389-90B910C08BED}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
+        <c:axId val="1426085584"/>
+        <c:axId val="1426085104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2078025968"/>
+        <c:axId val="1426085584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Tamaño n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1426085104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1426085104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1426085584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Big O Java</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ejecución 1 ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-21FB-4957-A444-EEEFE963A25C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ejecución 2 ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-21FB-4957-A444-EEEFE963A25C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ejecución 3 ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-21FB-4957-A444-EEEFE963A25C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ejecución 4 ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>134</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-21FB-4957-A444-EEEFE963A25C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ejecución 5 ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-21FB-4957-A444-EEEFE963A25C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1113657552"/>
+        <c:axId val="1113658032"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1113657552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -333,7 +1285,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1800795440"/>
+        <c:crossAx val="1113658032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -341,7 +1293,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1800795440"/>
+        <c:axId val="1113658032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -392,7 +1344,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2078025968"/>
+        <c:crossAx val="1113657552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -404,15 +1356,39 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -488,6 +1464,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1004,27 +2020,543 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>752474</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9523</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2355DABF-E06D-4BD6-A5C7-8C44F7C4FB0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1FD51B1-4E2E-0C03-E63F-AAB4A1B526DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1042,13 +2574,49 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CBCE9E2-F3E3-B536-DF51-F5A94835A2D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1086,7 +2654,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1192,7 +2760,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1334,7 +2902,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1342,42 +2910,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDC0310-F59C-4ECC-B789-53974A5A9D55}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:O112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1000</v>
       </c>
@@ -1396,12 +2987,34 @@
       <c r="F2" s="1">
         <v>17</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <f>AVERAGE(B2,C2,D2,E2,F2)</f>
         <v>17</v>
       </c>
+      <c r="I2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="1">
+        <v>35.01</v>
+      </c>
+      <c r="K2" s="1">
+        <v>172.63</v>
+      </c>
+      <c r="L2" s="1">
+        <v>99.73</v>
+      </c>
+      <c r="M2" s="1">
+        <v>104.48</v>
+      </c>
+      <c r="N2" s="1">
+        <v>86.55</v>
+      </c>
+      <c r="O2" s="1">
+        <f t="shared" ref="O2:O5" si="0">ROUND(AVERAGE(J2,K2,L2,M2,N2),2)</f>
+        <v>99.68</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2000</v>
       </c>
@@ -1420,12 +3033,34 @@
       <c r="F3" s="1">
         <v>40</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G6" si="0">AVERAGE(B3,C3,D3,E3,F3)</f>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G6" si="1">AVERAGE(B3,C3,D3,E3,F3)</f>
         <v>28.8</v>
       </c>
+      <c r="I3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J3" s="1">
+        <v>473.32</v>
+      </c>
+      <c r="K3" s="1">
+        <v>426.01</v>
+      </c>
+      <c r="L3" s="1">
+        <v>318.14</v>
+      </c>
+      <c r="M3" s="1">
+        <v>313.7</v>
+      </c>
+      <c r="N3" s="1">
+        <v>386.69</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" si="0"/>
+        <v>383.57</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3000</v>
       </c>
@@ -1444,12 +3079,34 @@
       <c r="F4" s="1">
         <v>58</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
+        <f t="shared" si="1"/>
+        <v>41.2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3000</v>
+      </c>
+      <c r="J4" s="1">
+        <v>877.55</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1054.83</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1201.0899999999999</v>
+      </c>
+      <c r="M4" s="1">
+        <v>896.25</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1043.45</v>
+      </c>
+      <c r="O4" s="1">
         <f t="shared" si="0"/>
-        <v>41.2</v>
+        <v>1014.63</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5000</v>
       </c>
@@ -1468,12 +3125,34 @@
       <c r="F5" s="1">
         <v>47</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>47.4</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5000</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2595.02</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2854.22</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2705.74</v>
+      </c>
+      <c r="M5" s="1">
+        <v>3067.88</v>
+      </c>
+      <c r="N5" s="1">
+        <v>3092.82</v>
+      </c>
+      <c r="O5" s="1">
         <f t="shared" si="0"/>
-        <v>47.4</v>
+        <v>2863.14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>10000</v>
       </c>
@@ -1492,130 +3171,41 @@
       <c r="F6" s="1">
         <v>127</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
         <v>128.6</v>
       </c>
+      <c r="I6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3092.82</v>
+      </c>
+      <c r="K6" s="1">
+        <v>9955.52</v>
+      </c>
+      <c r="L6" s="1">
+        <v>10369.44</v>
+      </c>
+      <c r="M6" s="1">
+        <v>11782.03</v>
+      </c>
+      <c r="N6" s="1">
+        <v>9897.74</v>
+      </c>
+      <c r="O6" s="1">
+        <f>ROUND(AVERAGE(J6,K6,L6,M6,N6),2)</f>
+        <v>9019.51</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B11" s="1">
-        <v>35.01</v>
-      </c>
-      <c r="C11" s="1">
-        <v>172.63</v>
-      </c>
-      <c r="D11" s="1">
-        <v>99.73</v>
-      </c>
-      <c r="E11" s="1">
-        <v>104.48</v>
-      </c>
-      <c r="F11" s="1">
-        <v>86.55</v>
-      </c>
-      <c r="G11">
-        <f>AVERAGE(B11,C11,D11,E11,F11)</f>
-        <v>99.68</v>
-      </c>
+    <row r="68" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H68" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B12" s="1">
-        <v>473.32</v>
-      </c>
-      <c r="C12" s="1">
-        <v>426.01</v>
-      </c>
-      <c r="D12" s="1">
-        <v>318.14</v>
-      </c>
-      <c r="E12" s="1">
-        <v>313.7</v>
-      </c>
-      <c r="F12" s="1">
-        <v>386.69</v>
-      </c>
-      <c r="G12">
-        <f t="shared" ref="G12:G15" si="1">AVERAGE(B12,C12,D12,E12,F12)</f>
-        <v>383.572</v>
-      </c>
+    <row r="98" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H98" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>3000</v>
-      </c>
-      <c r="B13" s="1">
-        <v>877.55</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1054.83</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1201.0899999999999</v>
-      </c>
-      <c r="E13" s="1">
-        <v>896.25</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1043.45</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>1014.634</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>5000</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2595.02</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2854.22</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2705.74</v>
-      </c>
-      <c r="E14" s="1">
-        <v>3067.88</v>
-      </c>
-      <c r="F14" s="1">
-        <v>3092.82</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>2863.136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>10000</v>
-      </c>
-      <c r="B15" s="1">
-        <v>3092.82</v>
-      </c>
-      <c r="C15" s="1">
-        <v>9955.52</v>
-      </c>
-      <c r="D15" s="1">
-        <v>10369.44</v>
-      </c>
-      <c r="E15" s="1">
-        <v>11782.03</v>
-      </c>
-      <c r="F15" s="1">
-        <v>9897.74</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>9019.5099999999984</v>
-      </c>
+    <row r="112" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H112" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\GitHub\analisisalgoritmico\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESTUDIANTE\Documents\GitHub\analisisalgoritmico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD6015D-AD8E-46B5-BD20-3D02F8FF538E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64208536-D346-4DBE-8042-91A05BB6D5C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2237C9B5-94A1-4A58-9B04-C7ABB5077F7A}"/>
   </bookViews>
@@ -22,17 +22,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -217,6 +206,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ejecución 1 ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -260,7 +260,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>35.01</c:v>
+                  <c:v>94.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>473.32</c:v>
@@ -287,6 +287,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ejecución 2 ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -357,6 +368,17 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ejecución 3 ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -427,6 +449,17 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ejecución 4 ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -497,6 +530,17 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ejecución 5 ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -970,6 +1014,30 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Hoja1!$B$2:$B$6</c:f>
@@ -1027,6 +1095,30 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Hoja1!$C$2:$C$6</c:f>
@@ -1084,6 +1176,30 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Hoja1!$D$2:$D$6</c:f>
@@ -1141,6 +1257,30 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Hoja1!$E$2:$E$6</c:f>
@@ -1198,6 +1338,30 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Hoja1!$F$2:$F$6</c:f>
@@ -1214,7 +1378,7 @@
                   <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>127</c:v>
@@ -1248,6 +1412,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Tamaño n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1313,6 +1532,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2614,9 +2888,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2654,7 +2928,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2760,7 +3034,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2902,7 +3176,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2912,8 +3186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDC0310-F59C-4ECC-B789-53974A5A9D55}">
   <dimension ref="A1:O112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2995,7 +3269,7 @@
         <v>1000</v>
       </c>
       <c r="J2" s="1">
-        <v>35.01</v>
+        <v>94.4</v>
       </c>
       <c r="K2" s="1">
         <v>172.63</v>
@@ -3011,7 +3285,7 @@
       </c>
       <c r="O2" s="1">
         <f t="shared" ref="O2:O5" si="0">ROUND(AVERAGE(J2,K2,L2,M2,N2),2)</f>
-        <v>99.68</v>
+        <v>111.56</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -3123,11 +3397,11 @@
         <v>43</v>
       </c>
       <c r="F5" s="1">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>47.4</v>
+        <v>46.4</v>
       </c>
       <c r="I5" s="1">
         <v>5000</v>
